--- a/Assignments for lectures/Примеры решения задач линейного программирования.xlsx
+++ b/Assignments for lectures/Примеры решения задач линейного программирования.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\СергейЧесноков\Git\computer_science_course\Assignments for lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDEC4EB-F6EC-4FDA-9E03-1846BDEE6A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE24BEC-D369-4AF9-9190-486A8B69993C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7ACD97CE-BFC1-4167-8EC4-EAFDFF4B6F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Отчет о результатах 1" sheetId="4" r:id="rId2"/>
-    <sheet name="Задача 2" sheetId="1" r:id="rId3"/>
+    <sheet name="Задача 2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Задача 1'!$C$4:$D$4</definedName>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Продукты</t>
   </si>
@@ -211,138 +210,15 @@
   <si>
     <t>знак неравенства</t>
   </si>
-  <si>
-    <t>Microsoft Excel 16.0 Отчет о результатах</t>
-  </si>
-  <si>
-    <t>Результат: Решение найдено. Все ограничения и условия оптимальности выполнены.</t>
-  </si>
-  <si>
-    <t>Модуль поиска решения</t>
-  </si>
-  <si>
-    <t>Модуль: Поиск решения нелинейных задач методом ОПГ</t>
-  </si>
-  <si>
-    <t>Число итераций: 3 Число подзадач: 0</t>
-  </si>
-  <si>
-    <t>Параметры поиска решения</t>
-  </si>
-  <si>
-    <t>Максимальное время Без пределов,  Число итераций Без пределов, Precision 0,000001, Использовать автоматическое масштабирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сходимость 0,0001, Размер совокупности 100, Случайное начальное значение 0, Правые производные, Обязательные границы</t>
-  </si>
-  <si>
-    <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 1%, Считать неотрицательными</t>
-  </si>
-  <si>
-    <t>Ячейка целевой функции (Максимум)</t>
-  </si>
-  <si>
-    <t>Ячейка</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Исходное значение</t>
-  </si>
-  <si>
-    <t>Окончательное значение</t>
-  </si>
-  <si>
-    <t>Ячейки переменных</t>
-  </si>
-  <si>
-    <t>Целочисленное</t>
-  </si>
-  <si>
-    <t>Ограничения</t>
-  </si>
-  <si>
-    <t>Значение ячейки</t>
-  </si>
-  <si>
-    <t>Формула</t>
-  </si>
-  <si>
-    <t>Состояние</t>
-  </si>
-  <si>
-    <t>Допуск</t>
-  </si>
-  <si>
-    <t>$C$7</t>
-  </si>
-  <si>
-    <t>Значение целевой функции x1</t>
-  </si>
-  <si>
-    <t>$C$4</t>
-  </si>
-  <si>
-    <t>Значение искомых переменных x1</t>
-  </si>
-  <si>
-    <t>Продолжить</t>
-  </si>
-  <si>
-    <t>$D$4</t>
-  </si>
-  <si>
-    <t>Значение искомых переменных x2</t>
-  </si>
-  <si>
-    <t>$C$17</t>
-  </si>
-  <si>
-    <t>$C$17&lt;=$E$17</t>
-  </si>
-  <si>
-    <t>Привязка</t>
-  </si>
-  <si>
-    <t>$C$18</t>
-  </si>
-  <si>
-    <t>$C$18&lt;=$E$18</t>
-  </si>
-  <si>
-    <t>Без привязки</t>
-  </si>
-  <si>
-    <t>$C$19</t>
-  </si>
-  <si>
-    <t>$C$19&lt;=$E$19</t>
-  </si>
-  <si>
-    <t>$C$4&gt;=$C$5</t>
-  </si>
-  <si>
-    <t>$D$4&gt;=$D$5</t>
-  </si>
-  <si>
-    <t>Лист: [Примеры решения задач линейного программирования.xlsx]Задача 1</t>
-  </si>
-  <si>
-    <t>Отчет создан: 13.10.2021 11:33:38</t>
-  </si>
-  <si>
-    <t>Время решения: 0,047 секунд.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,15 +245,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -399,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -542,42 +409,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +433,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,18 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -941,7 +770,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -979,7 +808,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="13">
         <v>21.166666666666668</v>
       </c>
       <c r="D4" s="2">
@@ -1001,10 +830,10 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="12">
         <v>830.45</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="12">
         <v>960.11</v>
       </c>
     </row>
@@ -1012,37 +841,37 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="14">
         <f>SUMPRODUCT(C4:D4,C6:D6)</f>
         <v>29099.178333333333</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
@@ -1101,7 +930,7 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" s="25">
+      <c r="C17" s="15">
         <f>C12*C$4+D12*D$4</f>
         <v>159.5</v>
       </c>
@@ -1113,7 +942,7 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18" s="25">
+      <c r="C18" s="15">
         <f>C13*C$4+D13*D$4</f>
         <v>302</v>
       </c>
@@ -1125,7 +954,7 @@
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19" s="25">
+      <c r="C19" s="15">
         <f>C14*C$4+D14*D$4</f>
         <v>211</v>
       </c>
@@ -1150,307 +979,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC98D61D-3455-48F0-ADB5-FDBC38910BE2}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <v>29099.178333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>21.166666666666668</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>12</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="21">
-        <v>159.5</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="19">
-        <v>150.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="21">
-        <v>302</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="19">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="21">
-        <v>211</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="21">
-        <v>21.166666666666668</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="21">
-        <v>21.166666666666668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="20">
-        <v>12</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0A1B39-0B38-4AF9-973E-B71F0BAEAF69}">
   <dimension ref="A1"/>
   <sheetViews>
